--- a/data/trans_orig/P14A19-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P14A19-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F0261856-B857-4E19-8641-6A56F05A3D5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{ADDA8671-4AEF-4A25-8379-B4E2288EBAD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F10DE297-134F-433C-A42C-1CCED750B488}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{41E70ADD-9E3C-483C-B93E-7A906D9F9DB4}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="282">
   <si>
     <t>Población que recibe medicación o terapia por varices en las piernas en 2012 (Tasa respuesta: 4,83%)</t>
   </si>
@@ -84,97 +84,103 @@
     <t>70,89%</t>
   </si>
   <si>
+    <t>16,16%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>49,52%</t>
+  </si>
+  <si>
+    <t>31,74%</t>
+  </si>
+  <si>
+    <t>69,17%</t>
+  </si>
+  <si>
+    <t>53,57%</t>
+  </si>
+  <si>
+    <t>35,66%</t>
+  </si>
+  <si>
+    <t>71,03%</t>
+  </si>
+  <si>
+    <t>29,11%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>83,84%</t>
+  </si>
+  <si>
+    <t>50,48%</t>
+  </si>
+  <si>
+    <t>30,83%</t>
+  </si>
+  <si>
+    <t>68,26%</t>
+  </si>
+  <si>
+    <t>46,43%</t>
+  </si>
+  <si>
+    <t>28,97%</t>
+  </si>
+  <si>
+    <t>64,34%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>50,06%</t>
+  </si>
+  <si>
+    <t>43,19%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>71,39%</t>
+  </si>
+  <si>
+    <t>44,71%</t>
+  </si>
+  <si>
+    <t>22,55%</t>
+  </si>
+  <si>
+    <t>67,65%</t>
+  </si>
+  <si>
+    <t>49,94%</t>
+  </si>
+  <si>
+    <t>56,81%</t>
+  </si>
+  <si>
     <t>28,61%</t>
   </si>
   <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>49,52%</t>
-  </si>
-  <si>
-    <t>30,5%</t>
-  </si>
-  <si>
-    <t>71,61%</t>
-  </si>
-  <si>
-    <t>53,57%</t>
-  </si>
-  <si>
-    <t>36,05%</t>
-  </si>
-  <si>
-    <t>70,26%</t>
-  </si>
-  <si>
-    <t>29,11%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>71,39%</t>
-  </si>
-  <si>
-    <t>50,48%</t>
-  </si>
-  <si>
-    <t>28,39%</t>
-  </si>
-  <si>
-    <t>69,5%</t>
-  </si>
-  <si>
-    <t>46,43%</t>
-  </si>
-  <si>
-    <t>29,74%</t>
-  </si>
-  <si>
-    <t>63,95%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>50,06%</t>
-  </si>
-  <si>
-    <t>43,19%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>44,71%</t>
-  </si>
-  <si>
-    <t>22,01%</t>
-  </si>
-  <si>
-    <t>67,32%</t>
-  </si>
-  <si>
-    <t>49,94%</t>
-  </si>
-  <si>
-    <t>56,81%</t>
-  </si>
-  <si>
     <t>85,38%</t>
   </si>
   <si>
     <t>55,29%</t>
   </si>
   <si>
-    <t>32,68%</t>
-  </si>
-  <si>
-    <t>77,99%</t>
+    <t>32,35%</t>
+  </si>
+  <si>
+    <t>77,45%</t>
   </si>
   <si>
     <t>Granada</t>
@@ -189,19 +195,19 @@
     <t>40,19%</t>
   </si>
   <si>
-    <t>28,52%</t>
-  </si>
-  <si>
-    <t>53,69%</t>
+    <t>27,91%</t>
+  </si>
+  <si>
+    <t>54,51%</t>
   </si>
   <si>
     <t>36,47%</t>
   </si>
   <si>
-    <t>25,66%</t>
-  </si>
-  <si>
-    <t>49,37%</t>
+    <t>25,29%</t>
+  </si>
+  <si>
+    <t>49,13%</t>
   </si>
   <si>
     <t>69,43%</t>
@@ -210,19 +216,19 @@
     <t>59,81%</t>
   </si>
   <si>
-    <t>46,31%</t>
-  </si>
-  <si>
-    <t>71,48%</t>
+    <t>45,49%</t>
+  </si>
+  <si>
+    <t>72,09%</t>
   </si>
   <si>
     <t>63,53%</t>
   </si>
   <si>
-    <t>50,63%</t>
-  </si>
-  <si>
-    <t>74,34%</t>
+    <t>50,87%</t>
+  </si>
+  <si>
+    <t>74,71%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -231,49 +237,49 @@
     <t>21,1%</t>
   </si>
   <si>
-    <t>79,62%</t>
+    <t>80,3%</t>
   </si>
   <si>
     <t>18,73%</t>
   </si>
   <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>34,01%</t>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>35,73%</t>
   </si>
   <si>
     <t>19,03%</t>
   </si>
   <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>33,67%</t>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>33,41%</t>
   </si>
   <si>
     <t>78,9%</t>
   </si>
   <si>
-    <t>20,38%</t>
+    <t>19,7%</t>
   </si>
   <si>
     <t>81,27%</t>
   </si>
   <si>
-    <t>65,99%</t>
-  </si>
-  <si>
-    <t>91,96%</t>
+    <t>64,27%</t>
+  </si>
+  <si>
+    <t>90,14%</t>
   </si>
   <si>
     <t>80,97%</t>
   </si>
   <si>
-    <t>66,33%</t>
-  </si>
-  <si>
-    <t>90,59%</t>
+    <t>66,59%</t>
+  </si>
+  <si>
+    <t>90,66%</t>
   </si>
   <si>
     <t>Jaen</t>
@@ -285,19 +291,19 @@
     <t>37,27%</t>
   </si>
   <si>
-    <t>18,64%</t>
-  </si>
-  <si>
-    <t>60,71%</t>
+    <t>18,59%</t>
+  </si>
+  <si>
+    <t>56,71%</t>
   </si>
   <si>
     <t>41,06%</t>
   </si>
   <si>
-    <t>24,41%</t>
-  </si>
-  <si>
-    <t>61,53%</t>
+    <t>24,12%</t>
+  </si>
+  <si>
+    <t>61,38%</t>
   </si>
   <si>
     <t>31,05%</t>
@@ -306,19 +312,19 @@
     <t>62,73%</t>
   </si>
   <si>
-    <t>39,29%</t>
-  </si>
-  <si>
-    <t>81,36%</t>
+    <t>43,29%</t>
+  </si>
+  <si>
+    <t>81,41%</t>
   </si>
   <si>
     <t>58,94%</t>
   </si>
   <si>
-    <t>38,47%</t>
-  </si>
-  <si>
-    <t>75,59%</t>
+    <t>38,62%</t>
+  </si>
+  <si>
+    <t>75,88%</t>
   </si>
   <si>
     <t>Malaga</t>
@@ -327,37 +333,37 @@
     <t>40,99%</t>
   </si>
   <si>
-    <t>29,98%</t>
-  </si>
-  <si>
-    <t>54,45%</t>
+    <t>29,28%</t>
+  </si>
+  <si>
+    <t>53,24%</t>
   </si>
   <si>
     <t>37,61%</t>
   </si>
   <si>
-    <t>27,89%</t>
-  </si>
-  <si>
-    <t>50,65%</t>
+    <t>27,18%</t>
+  </si>
+  <si>
+    <t>49,88%</t>
   </si>
   <si>
     <t>59,01%</t>
   </si>
   <si>
-    <t>45,55%</t>
-  </si>
-  <si>
-    <t>70,02%</t>
+    <t>46,76%</t>
+  </si>
+  <si>
+    <t>70,72%</t>
   </si>
   <si>
     <t>62,39%</t>
   </si>
   <si>
-    <t>49,35%</t>
-  </si>
-  <si>
-    <t>72,11%</t>
+    <t>50,12%</t>
+  </si>
+  <si>
+    <t>72,82%</t>
   </si>
   <si>
     <t>Sevilla</t>
@@ -375,19 +381,19 @@
     <t>63,55%</t>
   </si>
   <si>
-    <t>49,85%</t>
-  </si>
-  <si>
-    <t>75,54%</t>
+    <t>50,13%</t>
+  </si>
+  <si>
+    <t>75,74%</t>
   </si>
   <si>
     <t>62,19%</t>
   </si>
   <si>
-    <t>50,25%</t>
-  </si>
-  <si>
-    <t>73,31%</t>
+    <t>50,31%</t>
+  </si>
+  <si>
+    <t>74,46%</t>
   </si>
   <si>
     <t>47,97%</t>
@@ -402,73 +408,73 @@
     <t>36,45%</t>
   </si>
   <si>
-    <t>24,46%</t>
-  </si>
-  <si>
-    <t>50,15%</t>
+    <t>24,26%</t>
+  </si>
+  <si>
+    <t>49,87%</t>
   </si>
   <si>
     <t>37,81%</t>
   </si>
   <si>
-    <t>26,69%</t>
-  </si>
-  <si>
-    <t>49,75%</t>
+    <t>25,54%</t>
+  </si>
+  <si>
+    <t>49,69%</t>
   </si>
   <si>
     <t>36,2%</t>
   </si>
   <si>
-    <t>22,12%</t>
-  </si>
-  <si>
-    <t>53,15%</t>
+    <t>21,05%</t>
+  </si>
+  <si>
+    <t>52,46%</t>
   </si>
   <si>
     <t>43,47%</t>
   </si>
   <si>
-    <t>38,21%</t>
-  </si>
-  <si>
-    <t>50,19%</t>
+    <t>37,62%</t>
+  </si>
+  <si>
+    <t>49,33%</t>
   </si>
   <si>
     <t>42,6%</t>
   </si>
   <si>
-    <t>36,92%</t>
-  </si>
-  <si>
-    <t>48,02%</t>
+    <t>36,81%</t>
+  </si>
+  <si>
+    <t>48,0%</t>
   </si>
   <si>
     <t>63,8%</t>
   </si>
   <si>
-    <t>46,85%</t>
-  </si>
-  <si>
-    <t>77,88%</t>
+    <t>47,54%</t>
+  </si>
+  <si>
+    <t>78,95%</t>
   </si>
   <si>
     <t>56,53%</t>
   </si>
   <si>
-    <t>49,81%</t>
-  </si>
-  <si>
-    <t>61,79%</t>
+    <t>50,67%</t>
+  </si>
+  <si>
+    <t>62,38%</t>
   </si>
   <si>
     <t>57,4%</t>
   </si>
   <si>
-    <t>51,98%</t>
-  </si>
-  <si>
-    <t>63,08%</t>
+    <t>52,0%</t>
+  </si>
+  <si>
+    <t>63,19%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1288,7 +1294,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21DACBA5-6E74-4F25-AAEF-6C93103FFE26}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58CA36F8-CDF6-4C54-B325-6054E66F3818}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1725,7 +1731,7 @@
         <v>36</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="M10" s="7">
         <v>8</v>
@@ -1734,13 +1740,13 @@
         <v>8361</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1755,7 +1761,7 @@
         <v>2071</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>24</v>
@@ -1770,13 +1776,13 @@
         <v>8267</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="M11" s="7">
         <v>10</v>
@@ -1785,13 +1791,13 @@
         <v>10338</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1847,7 +1853,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -1862,10 +1868,10 @@
         <v>24</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H13" s="7">
         <v>23</v>
@@ -1874,13 +1880,13 @@
         <v>24966</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="M13" s="7">
         <v>23</v>
@@ -1889,13 +1895,13 @@
         <v>24966</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1913,7 +1919,7 @@
         <v>16</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>32</v>
@@ -1925,13 +1931,13 @@
         <v>37150</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M14" s="7">
         <v>38</v>
@@ -1940,13 +1946,13 @@
         <v>43498</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2002,7 +2008,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2014,13 +2020,13 @@
         <v>1134</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>24</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H16" s="7">
         <v>7</v>
@@ -2029,13 +2035,13 @@
         <v>6994</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="M16" s="7">
         <v>8</v>
@@ -2044,13 +2050,13 @@
         <v>8128</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2065,10 +2071,10 @@
         <v>4238</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>16</v>
@@ -2080,13 +2086,13 @@
         <v>30353</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="M17" s="7">
         <v>33</v>
@@ -2095,13 +2101,13 @@
         <v>34592</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2157,7 +2163,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2169,7 +2175,7 @@
         <v>2093</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>24</v>
@@ -2184,13 +2190,13 @@
         <v>8334</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="M19" s="7">
         <v>10</v>
@@ -2199,13 +2205,13 @@
         <v>10427</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2220,7 +2226,7 @@
         <v>942</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>24</v>
@@ -2235,13 +2241,13 @@
         <v>14025</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="M20" s="7">
         <v>15</v>
@@ -2250,13 +2256,13 @@
         <v>14968</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2312,7 +2318,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2327,10 +2333,10 @@
         <v>24</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H22" s="7">
         <v>27</v>
@@ -2339,13 +2345,13 @@
         <v>28707</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="M22" s="7">
         <v>27</v>
@@ -2354,13 +2360,13 @@
         <v>28707</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2378,7 +2384,7 @@
         <v>16</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>32</v>
@@ -2390,13 +2396,13 @@
         <v>41322</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="M23" s="7">
         <v>43</v>
@@ -2405,13 +2411,13 @@
         <v>47613</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2467,7 +2473,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -2479,13 +2485,13 @@
         <v>4392</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="H25" s="7">
         <v>37</v>
@@ -2494,13 +2500,13 @@
         <v>39857</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="M25" s="7">
         <v>41</v>
@@ -2509,13 +2515,13 @@
         <v>44249</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2530,13 +2536,13 @@
         <v>4050</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="H26" s="7">
         <v>21</v>
@@ -2545,13 +2551,13 @@
         <v>22858</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="M26" s="7">
         <v>25</v>
@@ -2560,13 +2566,13 @@
         <v>26908</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2634,13 +2640,13 @@
         <v>14765</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="H28" s="7">
         <v>122</v>
@@ -2649,13 +2655,13 @@
         <v>130281</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="M28" s="7">
         <v>135</v>
@@ -2664,13 +2670,13 @@
         <v>145046</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2685,28 +2691,28 @@
         <v>26023</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="H29" s="7">
         <v>156</v>
       </c>
       <c r="I29" s="7">
-        <v>169403</v>
+        <v>169404</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="M29" s="7">
         <v>179</v>
@@ -2715,13 +2721,13 @@
         <v>195426</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2748,7 +2754,7 @@
         <v>278</v>
       </c>
       <c r="I30" s="7">
-        <v>299684</v>
+        <v>299685</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>32</v>
@@ -2777,7 +2783,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -2801,7 +2807,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A35E4A1E-815E-4106-B98C-1931C21DA8C4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33D09340-1043-485F-988A-061F981675D7}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2818,7 +2824,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2928,10 +2934,10 @@
         <v>24</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="H4" s="7">
         <v>9</v>
@@ -2940,13 +2946,13 @@
         <v>9225</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="M4" s="7">
         <v>9</v>
@@ -2955,13 +2961,13 @@
         <v>9225</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2979,7 +2985,7 @@
         <v>16</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>32</v>
@@ -2991,13 +2997,13 @@
         <v>11039</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="M5" s="7">
         <v>13</v>
@@ -3006,13 +3012,13 @@
         <v>14697</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3083,7 +3089,7 @@
         <v>16</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>32</v>
@@ -3095,13 +3101,13 @@
         <v>8005</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="M7" s="7">
         <v>7</v>
@@ -3110,10 +3116,10 @@
         <v>9151</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>16</v>
@@ -3134,10 +3140,10 @@
         <v>24</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="H8" s="7">
         <v>3</v>
@@ -3146,13 +3152,13 @@
         <v>3571</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="M8" s="7">
         <v>3</v>
@@ -3161,13 +3167,13 @@
         <v>3571</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>24</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3235,10 +3241,10 @@
         <v>3061</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>16</v>
@@ -3250,13 +3256,13 @@
         <v>12436</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="M10" s="7">
         <v>15</v>
@@ -3265,13 +3271,13 @@
         <v>15498</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3286,13 +3292,13 @@
         <v>1836</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>24</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="H11" s="7">
         <v>22</v>
@@ -3301,13 +3307,13 @@
         <v>27200</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="M11" s="7">
         <v>24</v>
@@ -3316,13 +3322,13 @@
         <v>29036</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3378,7 +3384,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3393,10 +3399,10 @@
         <v>24</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="H13" s="7">
         <v>10</v>
@@ -3405,13 +3411,13 @@
         <v>13402</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="M13" s="7">
         <v>10</v>
@@ -3420,13 +3426,13 @@
         <v>13402</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3444,7 +3450,7 @@
         <v>16</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>32</v>
@@ -3456,13 +3462,13 @@
         <v>16399</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="M14" s="7">
         <v>20</v>
@@ -3471,13 +3477,13 @@
         <v>22682</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3533,7 +3539,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3545,7 +3551,7 @@
         <v>2965</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>24</v>
@@ -3560,10 +3566,10 @@
         <v>4974</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>16</v>
@@ -3575,13 +3581,13 @@
         <v>7938</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3596,7 +3602,7 @@
         <v>1001</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>24</v>
@@ -3611,13 +3617,13 @@
         <v>1874</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="M17" s="7">
         <v>3</v>
@@ -3626,13 +3632,13 @@
         <v>2875</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3688,7 +3694,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3700,7 +3706,7 @@
         <v>2135</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>24</v>
@@ -3715,13 +3721,13 @@
         <v>10974</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="M19" s="7">
         <v>11</v>
@@ -3730,13 +3736,13 @@
         <v>13109</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3751,7 +3757,7 @@
         <v>793</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>24</v>
@@ -3766,13 +3772,13 @@
         <v>3299</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="M20" s="7">
         <v>4</v>
@@ -3781,13 +3787,13 @@
         <v>4091</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3843,7 +3849,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3855,13 +3861,13 @@
         <v>7872</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="H22" s="7">
         <v>16</v>
@@ -3870,13 +3876,13 @@
         <v>17968</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="M22" s="7">
         <v>24</v>
@@ -3885,13 +3891,13 @@
         <v>25840</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3906,13 +3912,13 @@
         <v>6656</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="H23" s="7">
         <v>18</v>
@@ -3921,13 +3927,13 @@
         <v>20865</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="M23" s="7">
         <v>24</v>
@@ -3936,13 +3942,13 @@
         <v>27521</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3998,7 +4004,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -4010,13 +4016,13 @@
         <v>5108</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="H25" s="7">
         <v>29</v>
@@ -4025,13 +4031,13 @@
         <v>35212</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="M25" s="7">
         <v>34</v>
@@ -4040,13 +4046,13 @@
         <v>40320</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4061,13 +4067,13 @@
         <v>9828</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="H26" s="7">
         <v>19</v>
@@ -4076,13 +4082,13 @@
         <v>21814</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="M26" s="7">
         <v>28</v>
@@ -4091,13 +4097,13 @@
         <v>31642</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4165,13 +4171,13 @@
         <v>22287</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="H28" s="7">
         <v>96</v>
@@ -4180,13 +4186,13 @@
         <v>112196</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="K28" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>268</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>266</v>
       </c>
       <c r="M28" s="7">
         <v>118</v>
@@ -4195,13 +4201,13 @@
         <v>134483</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4216,13 +4222,13 @@
         <v>30054</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="H29" s="7">
         <v>91</v>
@@ -4231,13 +4237,13 @@
         <v>106062</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="K29" s="7" t="s">
-        <v>273</v>
-      </c>
       <c r="L29" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="M29" s="7">
         <v>119</v>
@@ -4246,13 +4252,13 @@
         <v>136116</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4308,7 +4314,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P14A19-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P14A19-Provincia-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ADDA8671-4AEF-4A25-8379-B4E2288EBAD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{712EE58D-BB5F-4E06-847A-96DE1BF771C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{41E70ADD-9E3C-483C-B93E-7A906D9F9DB4}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C4F9F127-8836-40AF-A876-5F07581D1B63}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -84,7 +84,7 @@
     <t>70,89%</t>
   </si>
   <si>
-    <t>16,16%</t>
+    <t>31,26%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -93,19 +93,19 @@
     <t>49,52%</t>
   </si>
   <si>
-    <t>31,74%</t>
-  </si>
-  <si>
-    <t>69,17%</t>
+    <t>32,0%</t>
+  </si>
+  <si>
+    <t>69,3%</t>
   </si>
   <si>
     <t>53,57%</t>
   </si>
   <si>
-    <t>35,66%</t>
-  </si>
-  <si>
-    <t>71,03%</t>
+    <t>36,04%</t>
+  </si>
+  <si>
+    <t>69,4%</t>
   </si>
   <si>
     <t>29,11%</t>
@@ -114,25 +114,25 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>83,84%</t>
+    <t>68,74%</t>
   </si>
   <si>
     <t>50,48%</t>
   </si>
   <si>
-    <t>30,83%</t>
-  </si>
-  <si>
-    <t>68,26%</t>
+    <t>30,7%</t>
+  </si>
+  <si>
+    <t>68,0%</t>
   </si>
   <si>
     <t>46,43%</t>
   </si>
   <si>
-    <t>28,97%</t>
-  </si>
-  <si>
-    <t>64,34%</t>
+    <t>30,6%</t>
+  </si>
+  <si>
+    <t>63,96%</t>
   </si>
   <si>
     <t>100%</t>
@@ -147,19 +147,19 @@
     <t>43,19%</t>
   </si>
   <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>71,39%</t>
+    <t>20,81%</t>
+  </si>
+  <si>
+    <t>71,4%</t>
   </si>
   <si>
     <t>44,71%</t>
   </si>
   <si>
-    <t>22,55%</t>
-  </si>
-  <si>
-    <t>67,65%</t>
+    <t>22,25%</t>
+  </si>
+  <si>
+    <t>66,9%</t>
   </si>
   <si>
     <t>49,94%</t>
@@ -168,19 +168,19 @@
     <t>56,81%</t>
   </si>
   <si>
-    <t>28,61%</t>
-  </si>
-  <si>
-    <t>85,38%</t>
+    <t>28,6%</t>
+  </si>
+  <si>
+    <t>79,19%</t>
   </si>
   <si>
     <t>55,29%</t>
   </si>
   <si>
-    <t>32,35%</t>
-  </si>
-  <si>
-    <t>77,45%</t>
+    <t>33,1%</t>
+  </si>
+  <si>
+    <t>77,75%</t>
   </si>
   <si>
     <t>Granada</t>
@@ -195,19 +195,19 @@
     <t>40,19%</t>
   </si>
   <si>
-    <t>27,91%</t>
-  </si>
-  <si>
-    <t>54,51%</t>
+    <t>27,72%</t>
+  </si>
+  <si>
+    <t>54,43%</t>
   </si>
   <si>
     <t>36,47%</t>
   </si>
   <si>
-    <t>25,29%</t>
-  </si>
-  <si>
-    <t>49,13%</t>
+    <t>25,35%</t>
+  </si>
+  <si>
+    <t>52,02%</t>
   </si>
   <si>
     <t>69,43%</t>
@@ -216,19 +216,19 @@
     <t>59,81%</t>
   </si>
   <si>
-    <t>45,49%</t>
-  </si>
-  <si>
-    <t>72,09%</t>
+    <t>45,57%</t>
+  </si>
+  <si>
+    <t>72,28%</t>
   </si>
   <si>
     <t>63,53%</t>
   </si>
   <si>
-    <t>50,87%</t>
-  </si>
-  <si>
-    <t>74,71%</t>
+    <t>47,98%</t>
+  </si>
+  <si>
+    <t>74,65%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -237,49 +237,49 @@
     <t>21,1%</t>
   </si>
   <si>
-    <t>80,3%</t>
+    <t>80,51%</t>
   </si>
   <si>
     <t>18,73%</t>
   </si>
   <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>35,73%</t>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>34,75%</t>
   </si>
   <si>
     <t>19,03%</t>
   </si>
   <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>33,41%</t>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>33,58%</t>
   </si>
   <si>
     <t>78,9%</t>
   </si>
   <si>
-    <t>19,7%</t>
+    <t>19,49%</t>
   </si>
   <si>
     <t>81,27%</t>
   </si>
   <si>
-    <t>64,27%</t>
-  </si>
-  <si>
-    <t>90,14%</t>
+    <t>65,25%</t>
+  </si>
+  <si>
+    <t>91,87%</t>
   </si>
   <si>
     <t>80,97%</t>
   </si>
   <si>
-    <t>66,59%</t>
-  </si>
-  <si>
-    <t>90,66%</t>
+    <t>66,42%</t>
+  </si>
+  <si>
+    <t>91,02%</t>
   </si>
   <si>
     <t>Jaen</t>
@@ -291,19 +291,19 @@
     <t>37,27%</t>
   </si>
   <si>
-    <t>18,59%</t>
-  </si>
-  <si>
-    <t>56,71%</t>
+    <t>18,6%</t>
+  </si>
+  <si>
+    <t>59,96%</t>
   </si>
   <si>
     <t>41,06%</t>
   </si>
   <si>
-    <t>24,12%</t>
-  </si>
-  <si>
-    <t>61,38%</t>
+    <t>24,05%</t>
+  </si>
+  <si>
+    <t>61,77%</t>
   </si>
   <si>
     <t>31,05%</t>
@@ -312,19 +312,19 @@
     <t>62,73%</t>
   </si>
   <si>
-    <t>43,29%</t>
-  </si>
-  <si>
-    <t>81,41%</t>
+    <t>40,04%</t>
+  </si>
+  <si>
+    <t>81,4%</t>
   </si>
   <si>
     <t>58,94%</t>
   </si>
   <si>
-    <t>38,62%</t>
-  </si>
-  <si>
-    <t>75,88%</t>
+    <t>38,23%</t>
+  </si>
+  <si>
+    <t>75,95%</t>
   </si>
   <si>
     <t>Malaga</t>
@@ -333,37 +333,37 @@
     <t>40,99%</t>
   </si>
   <si>
-    <t>29,28%</t>
-  </si>
-  <si>
-    <t>53,24%</t>
+    <t>29,49%</t>
+  </si>
+  <si>
+    <t>52,81%</t>
   </si>
   <si>
     <t>37,61%</t>
   </si>
   <si>
-    <t>27,18%</t>
-  </si>
-  <si>
-    <t>49,88%</t>
+    <t>25,76%</t>
+  </si>
+  <si>
+    <t>49,17%</t>
   </si>
   <si>
     <t>59,01%</t>
   </si>
   <si>
-    <t>46,76%</t>
-  </si>
-  <si>
-    <t>70,72%</t>
+    <t>47,19%</t>
+  </si>
+  <si>
+    <t>70,51%</t>
   </si>
   <si>
     <t>62,39%</t>
   </si>
   <si>
-    <t>50,12%</t>
-  </si>
-  <si>
-    <t>72,82%</t>
+    <t>50,83%</t>
+  </si>
+  <si>
+    <t>74,24%</t>
   </si>
   <si>
     <t>Sevilla</t>
@@ -375,238 +375,244 @@
     <t>13,75%</t>
   </si>
   <si>
-    <t>88,31%</t>
+    <t>88,3%</t>
   </si>
   <si>
     <t>63,55%</t>
   </si>
   <si>
-    <t>50,13%</t>
-  </si>
-  <si>
-    <t>75,74%</t>
+    <t>51,2%</t>
+  </si>
+  <si>
+    <t>75,63%</t>
   </si>
   <si>
     <t>62,19%</t>
   </si>
   <si>
+    <t>49,56%</t>
+  </si>
+  <si>
+    <t>72,97%</t>
+  </si>
+  <si>
+    <t>47,97%</t>
+  </si>
+  <si>
+    <t>11,7%</t>
+  </si>
+  <si>
+    <t>86,25%</t>
+  </si>
+  <si>
+    <t>36,45%</t>
+  </si>
+  <si>
+    <t>24,37%</t>
+  </si>
+  <si>
+    <t>48,8%</t>
+  </si>
+  <si>
+    <t>37,81%</t>
+  </si>
+  <si>
+    <t>27,03%</t>
+  </si>
+  <si>
+    <t>50,44%</t>
+  </si>
+  <si>
+    <t>36,2%</t>
+  </si>
+  <si>
+    <t>20,94%</t>
+  </si>
+  <si>
+    <t>54,0%</t>
+  </si>
+  <si>
+    <t>43,47%</t>
+  </si>
+  <si>
+    <t>37,66%</t>
+  </si>
+  <si>
+    <t>49,8%</t>
+  </si>
+  <si>
+    <t>42,6%</t>
+  </si>
+  <si>
+    <t>36,99%</t>
+  </si>
+  <si>
+    <t>47,89%</t>
+  </si>
+  <si>
+    <t>63,8%</t>
+  </si>
+  <si>
+    <t>46,0%</t>
+  </si>
+  <si>
+    <t>79,06%</t>
+  </si>
+  <si>
+    <t>56,53%</t>
+  </si>
+  <si>
+    <t>50,2%</t>
+  </si>
+  <si>
+    <t>62,34%</t>
+  </si>
+  <si>
+    <t>57,4%</t>
+  </si>
+  <si>
+    <t>52,11%</t>
+  </si>
+  <si>
+    <t>63,01%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que recibe medicación o terapia por varices en las piernas en 2016 (Tasa respuesta: 3,61%)</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>45,52%</t>
+  </si>
+  <si>
+    <t>25,25%</t>
+  </si>
+  <si>
+    <t>69,1%</t>
+  </si>
+  <si>
+    <t>38,56%</t>
+  </si>
+  <si>
+    <t>20,5%</t>
+  </si>
+  <si>
+    <t>61,31%</t>
+  </si>
+  <si>
+    <t>55,59%</t>
+  </si>
+  <si>
+    <t>54,48%</t>
+  </si>
+  <si>
+    <t>30,9%</t>
+  </si>
+  <si>
+    <t>74,75%</t>
+  </si>
+  <si>
+    <t>61,44%</t>
+  </si>
+  <si>
+    <t>38,69%</t>
+  </si>
+  <si>
+    <t>79,5%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>69,15%</t>
+  </si>
+  <si>
+    <t>32,9%</t>
+  </si>
+  <si>
+    <t>90,91%</t>
+  </si>
+  <si>
+    <t>71,93%</t>
+  </si>
+  <si>
+    <t>40,72%</t>
+  </si>
+  <si>
+    <t>91,79%</t>
+  </si>
+  <si>
+    <t>77,15%</t>
+  </si>
+  <si>
+    <t>30,85%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>67,1%</t>
+  </si>
+  <si>
+    <t>28,07%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>59,28%</t>
+  </si>
+  <si>
+    <t>62,51%</t>
+  </si>
+  <si>
+    <t>20,27%</t>
+  </si>
+  <si>
+    <t>31,37%</t>
+  </si>
+  <si>
+    <t>17,92%</t>
+  </si>
+  <si>
+    <t>49,69%</t>
+  </si>
+  <si>
+    <t>34,8%</t>
+  </si>
+  <si>
+    <t>20,53%</t>
+  </si>
+  <si>
+    <t>50,64%</t>
+  </si>
+  <si>
+    <t>37,49%</t>
+  </si>
+  <si>
+    <t>79,73%</t>
+  </si>
+  <si>
+    <t>68,63%</t>
+  </si>
+  <si>
     <t>50,31%</t>
   </si>
   <si>
-    <t>74,46%</t>
-  </si>
-  <si>
-    <t>47,97%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>86,25%</t>
-  </si>
-  <si>
-    <t>36,45%</t>
-  </si>
-  <si>
-    <t>24,26%</t>
-  </si>
-  <si>
-    <t>49,87%</t>
-  </si>
-  <si>
-    <t>37,81%</t>
-  </si>
-  <si>
-    <t>25,54%</t>
-  </si>
-  <si>
-    <t>49,69%</t>
-  </si>
-  <si>
-    <t>36,2%</t>
-  </si>
-  <si>
-    <t>21,05%</t>
-  </si>
-  <si>
-    <t>52,46%</t>
-  </si>
-  <si>
-    <t>43,47%</t>
-  </si>
-  <si>
-    <t>37,62%</t>
-  </si>
-  <si>
-    <t>49,33%</t>
-  </si>
-  <si>
-    <t>42,6%</t>
-  </si>
-  <si>
-    <t>36,81%</t>
-  </si>
-  <si>
-    <t>48,0%</t>
-  </si>
-  <si>
-    <t>63,8%</t>
-  </si>
-  <si>
-    <t>47,54%</t>
-  </si>
-  <si>
-    <t>78,95%</t>
-  </si>
-  <si>
-    <t>56,53%</t>
-  </si>
-  <si>
-    <t>50,67%</t>
-  </si>
-  <si>
-    <t>62,38%</t>
-  </si>
-  <si>
-    <t>57,4%</t>
-  </si>
-  <si>
-    <t>52,0%</t>
-  </si>
-  <si>
-    <t>63,19%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que recibe medicación o terapia por varices en las piernas en 2015 (Tasa respuesta: 3,61%)</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>45,52%</t>
-  </si>
-  <si>
-    <t>24,03%</t>
-  </si>
-  <si>
-    <t>69,26%</t>
-  </si>
-  <si>
-    <t>38,56%</t>
-  </si>
-  <si>
-    <t>19,52%</t>
-  </si>
-  <si>
-    <t>60,06%</t>
-  </si>
-  <si>
-    <t>55,59%</t>
-  </si>
-  <si>
-    <t>54,48%</t>
-  </si>
-  <si>
-    <t>30,74%</t>
-  </si>
-  <si>
-    <t>75,97%</t>
-  </si>
-  <si>
-    <t>61,44%</t>
-  </si>
-  <si>
-    <t>39,94%</t>
-  </si>
-  <si>
-    <t>80,48%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>69,15%</t>
-  </si>
-  <si>
-    <t>34,82%</t>
-  </si>
-  <si>
-    <t>91,26%</t>
-  </si>
-  <si>
-    <t>71,93%</t>
-  </si>
-  <si>
-    <t>39,11%</t>
-  </si>
-  <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>30,85%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>65,18%</t>
-  </si>
-  <si>
-    <t>28,07%</t>
-  </si>
-  <si>
-    <t>60,89%</t>
-  </si>
-  <si>
-    <t>62,51%</t>
-  </si>
-  <si>
-    <t>19,75%</t>
-  </si>
-  <si>
-    <t>31,37%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>47,17%</t>
-  </si>
-  <si>
-    <t>34,8%</t>
-  </si>
-  <si>
-    <t>20,71%</t>
-  </si>
-  <si>
-    <t>50,41%</t>
-  </si>
-  <si>
-    <t>37,49%</t>
-  </si>
-  <si>
-    <t>80,25%</t>
-  </si>
-  <si>
-    <t>68,63%</t>
-  </si>
-  <si>
-    <t>52,83%</t>
-  </si>
-  <si>
-    <t>82,87%</t>
+    <t>82,08%</t>
   </si>
   <si>
     <t>65,2%</t>
   </si>
   <si>
-    <t>49,59%</t>
-  </si>
-  <si>
-    <t>79,29%</t>
+    <t>49,36%</t>
+  </si>
+  <si>
+    <t>79,47%</t>
   </si>
   <si>
     <t>26,42%</t>
@@ -615,19 +621,19 @@
     <t>44,97%</t>
   </si>
   <si>
-    <t>24,15%</t>
-  </si>
-  <si>
-    <t>65,37%</t>
+    <t>26,01%</t>
+  </si>
+  <si>
+    <t>65,94%</t>
   </si>
   <si>
     <t>37,14%</t>
   </si>
   <si>
-    <t>19,79%</t>
-  </si>
-  <si>
-    <t>57,88%</t>
+    <t>19,67%</t>
+  </si>
+  <si>
+    <t>57,52%</t>
   </si>
   <si>
     <t>73,58%</t>
@@ -636,55 +642,55 @@
     <t>55,03%</t>
   </si>
   <si>
-    <t>34,63%</t>
-  </si>
-  <si>
-    <t>75,85%</t>
+    <t>34,06%</t>
+  </si>
+  <si>
+    <t>73,99%</t>
   </si>
   <si>
     <t>62,86%</t>
   </si>
   <si>
-    <t>42,12%</t>
-  </si>
-  <si>
-    <t>80,21%</t>
-  </si>
-  <si>
-    <t>74,75%</t>
+    <t>42,48%</t>
+  </si>
+  <si>
+    <t>80,33%</t>
+  </si>
+  <si>
+    <t>23,89%</t>
   </si>
   <si>
     <t>72,63%</t>
   </si>
   <si>
-    <t>27,92%</t>
+    <t>29,85%</t>
   </si>
   <si>
     <t>73,41%</t>
   </si>
   <si>
-    <t>44,23%</t>
-  </si>
-  <si>
-    <t>91,65%</t>
-  </si>
-  <si>
-    <t>25,25%</t>
+    <t>37,44%</t>
+  </si>
+  <si>
+    <t>91,59%</t>
+  </si>
+  <si>
+    <t>76,11%</t>
   </si>
   <si>
     <t>27,37%</t>
   </si>
   <si>
-    <t>72,08%</t>
+    <t>70,15%</t>
   </si>
   <si>
     <t>26,59%</t>
   </si>
   <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>55,77%</t>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>62,56%</t>
   </si>
   <si>
     <t>72,93%</t>
@@ -693,19 +699,19 @@
     <t>76,89%</t>
   </si>
   <si>
-    <t>50,62%</t>
-  </si>
-  <si>
-    <t>93,09%</t>
+    <t>45,43%</t>
+  </si>
+  <si>
+    <t>92,96%</t>
   </si>
   <si>
     <t>76,21%</t>
   </si>
   <si>
-    <t>51,22%</t>
-  </si>
-  <si>
-    <t>93,86%</t>
+    <t>48,3%</t>
+  </si>
+  <si>
+    <t>93,63%</t>
   </si>
   <si>
     <t>27,07%</t>
@@ -714,175 +720,169 @@
     <t>23,11%</t>
   </si>
   <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>49,38%</t>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>54,57%</t>
   </si>
   <si>
     <t>23,79%</t>
   </si>
   <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>48,78%</t>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>51,7%</t>
   </si>
   <si>
     <t>54,19%</t>
   </si>
   <si>
-    <t>25,67%</t>
-  </si>
-  <si>
-    <t>78,23%</t>
+    <t>26,05%</t>
+  </si>
+  <si>
+    <t>77,59%</t>
   </si>
   <si>
     <t>46,27%</t>
   </si>
   <si>
-    <t>28,51%</t>
-  </si>
-  <si>
-    <t>62,35%</t>
+    <t>30,89%</t>
+  </si>
+  <si>
+    <t>62,72%</t>
   </si>
   <si>
     <t>48,43%</t>
   </si>
   <si>
-    <t>34,17%</t>
-  </si>
-  <si>
-    <t>63,44%</t>
+    <t>34,64%</t>
+  </si>
+  <si>
+    <t>63,08%</t>
   </si>
   <si>
     <t>45,81%</t>
   </si>
   <si>
-    <t>21,77%</t>
-  </si>
-  <si>
-    <t>74,33%</t>
+    <t>22,41%</t>
+  </si>
+  <si>
+    <t>73,95%</t>
   </si>
   <si>
     <t>53,73%</t>
   </si>
   <si>
-    <t>37,65%</t>
-  </si>
-  <si>
-    <t>71,49%</t>
+    <t>37,28%</t>
+  </si>
+  <si>
+    <t>69,11%</t>
   </si>
   <si>
     <t>51,57%</t>
   </si>
   <si>
-    <t>36,56%</t>
-  </si>
-  <si>
-    <t>65,83%</t>
+    <t>36,92%</t>
+  </si>
+  <si>
+    <t>65,36%</t>
   </si>
   <si>
     <t>34,2%</t>
   </si>
   <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>64,37%</t>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>61,53%</t>
   </si>
   <si>
     <t>61,75%</t>
   </si>
   <si>
-    <t>48,18%</t>
-  </si>
-  <si>
-    <t>74,77%</t>
+    <t>74,63%</t>
   </si>
   <si>
     <t>56,03%</t>
   </si>
   <si>
-    <t>43,14%</t>
-  </si>
-  <si>
-    <t>68,62%</t>
+    <t>42,81%</t>
   </si>
   <si>
     <t>65,8%</t>
   </si>
   <si>
-    <t>35,63%</t>
-  </si>
-  <si>
-    <t>86,54%</t>
+    <t>38,47%</t>
+  </si>
+  <si>
+    <t>86,82%</t>
   </si>
   <si>
     <t>38,25%</t>
   </si>
   <si>
-    <t>25,23%</t>
-  </si>
-  <si>
-    <t>51,82%</t>
+    <t>25,37%</t>
   </si>
   <si>
     <t>43,97%</t>
   </si>
   <si>
-    <t>31,38%</t>
-  </si>
-  <si>
-    <t>56,86%</t>
+    <t>57,19%</t>
   </si>
   <si>
     <t>42,58%</t>
   </si>
   <si>
-    <t>30,55%</t>
-  </si>
-  <si>
-    <t>57,68%</t>
+    <t>29,54%</t>
+  </si>
+  <si>
+    <t>57,2%</t>
   </si>
   <si>
     <t>51,41%</t>
   </si>
   <si>
-    <t>43,84%</t>
+    <t>44,3%</t>
+  </si>
+  <si>
+    <t>59,1%</t>
   </si>
   <si>
     <t>49,7%</t>
   </si>
   <si>
-    <t>43,23%</t>
-  </si>
-  <si>
-    <t>56,29%</t>
+    <t>43,16%</t>
+  </si>
+  <si>
+    <t>56,21%</t>
   </si>
   <si>
     <t>57,42%</t>
   </si>
   <si>
-    <t>42,32%</t>
-  </si>
-  <si>
-    <t>69,45%</t>
+    <t>42,8%</t>
+  </si>
+  <si>
+    <t>70,46%</t>
   </si>
   <si>
     <t>48,59%</t>
   </si>
   <si>
-    <t>56,16%</t>
+    <t>40,9%</t>
+  </si>
+  <si>
+    <t>55,7%</t>
   </si>
   <si>
     <t>50,3%</t>
   </si>
   <si>
-    <t>43,71%</t>
-  </si>
-  <si>
-    <t>56,77%</t>
+    <t>43,79%</t>
+  </si>
+  <si>
+    <t>56,84%</t>
   </si>
 </sst>
 </file>
@@ -1294,7 +1294,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58CA36F8-CDF6-4C54-B325-6054E66F3818}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB9A61A0-C1C8-4320-B05F-F4AD25F408FB}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2807,7 +2807,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33D09340-1043-485F-988A-061F981675D7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58CD50AB-5B8F-4DA9-9CC9-C90D3B6745BB}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3122,7 +3122,7 @@
         <v>167</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>16</v>
+        <v>168</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3143,7 +3143,7 @@
         <v>49</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H8" s="7">
         <v>3</v>
@@ -3152,13 +3152,13 @@
         <v>3571</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M8" s="7">
         <v>3</v>
@@ -3167,13 +3167,13 @@
         <v>3571</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>24</v>
+        <v>174</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3241,10 +3241,10 @@
         <v>3061</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>16</v>
@@ -3256,13 +3256,13 @@
         <v>12436</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="M10" s="7">
         <v>15</v>
@@ -3271,13 +3271,13 @@
         <v>15498</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3292,13 +3292,13 @@
         <v>1836</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>24</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="H11" s="7">
         <v>22</v>
@@ -3307,13 +3307,13 @@
         <v>27200</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="M11" s="7">
         <v>24</v>
@@ -3322,13 +3322,13 @@
         <v>29036</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3402,7 +3402,7 @@
         <v>49</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="H13" s="7">
         <v>10</v>
@@ -3411,13 +3411,13 @@
         <v>13402</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="M13" s="7">
         <v>10</v>
@@ -3426,13 +3426,13 @@
         <v>13402</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3450,7 +3450,7 @@
         <v>16</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>32</v>
@@ -3462,13 +3462,13 @@
         <v>16399</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="M14" s="7">
         <v>20</v>
@@ -3477,13 +3477,13 @@
         <v>22682</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3551,10 +3551,10 @@
         <v>2965</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>204</v>
+        <v>158</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>24</v>
+        <v>206</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>16</v>
@@ -3566,10 +3566,10 @@
         <v>4974</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>16</v>
@@ -3581,13 +3581,13 @@
         <v>7938</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3602,13 +3602,13 @@
         <v>1001</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>210</v>
+        <v>150</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>24</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>16</v>
+        <v>212</v>
       </c>
       <c r="H17" s="7">
         <v>2</v>
@@ -3617,13 +3617,13 @@
         <v>1874</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="M17" s="7">
         <v>3</v>
@@ -3632,13 +3632,13 @@
         <v>2875</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3706,7 +3706,7 @@
         <v>2135</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>24</v>
@@ -3721,13 +3721,13 @@
         <v>10974</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="M19" s="7">
         <v>11</v>
@@ -3736,13 +3736,13 @@
         <v>13109</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3757,7 +3757,7 @@
         <v>793</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>24</v>
@@ -3772,13 +3772,13 @@
         <v>3299</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="M20" s="7">
         <v>4</v>
@@ -3787,13 +3787,13 @@
         <v>4091</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3861,13 +3861,13 @@
         <v>7872</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="H22" s="7">
         <v>16</v>
@@ -3876,13 +3876,13 @@
         <v>17968</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="M22" s="7">
         <v>24</v>
@@ -3891,13 +3891,13 @@
         <v>25840</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3912,13 +3912,13 @@
         <v>6656</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="H23" s="7">
         <v>18</v>
@@ -3927,13 +3927,13 @@
         <v>20865</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="M23" s="7">
         <v>24</v>
@@ -3942,13 +3942,13 @@
         <v>27521</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4016,13 +4016,13 @@
         <v>5108</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="H25" s="7">
         <v>29</v>
@@ -4031,13 +4031,13 @@
         <v>35212</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>252</v>
+        <v>104</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M25" s="7">
         <v>34</v>
@@ -4046,13 +4046,13 @@
         <v>40320</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>256</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4088,7 +4088,7 @@
         <v>261</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>262</v>
+        <v>99</v>
       </c>
       <c r="M26" s="7">
         <v>28</v>
@@ -4097,13 +4097,13 @@
         <v>31642</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>263</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4171,13 +4171,13 @@
         <v>22287</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>266</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>268</v>
       </c>
       <c r="H28" s="7">
         <v>96</v>
@@ -4186,13 +4186,13 @@
         <v>112196</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>268</v>
       </c>
       <c r="M28" s="7">
         <v>118</v>
@@ -4201,13 +4201,13 @@
         <v>134483</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>272</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4222,13 +4222,13 @@
         <v>30054</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>275</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>276</v>
       </c>
       <c r="H29" s="7">
         <v>91</v>
@@ -4237,10 +4237,10 @@
         <v>106062</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>277</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>275</v>
       </c>
       <c r="L29" s="7" t="s">
         <v>278</v>
